--- a/publipostage/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
+++ b/publipostage/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,32 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT02287844</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Xylo-oligosaccharide (XOS) in Combination With Inulin Modulates Both the Intestinal Environment and Immune Status in Healthy Subjects, While XOS Alone Only Shows Prebiotic Properties</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>PIB</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -525,32 +535,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT01480700</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Effect of Consumption of Eggs Rich in Xanthophyll Carotenoids and Omega-3 Fatty Acids on the Macular Pigment in Healthy People</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>ALGOVUE</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -562,32 +577,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT02353403</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Postprandial Glycaemic and Insulinaemic Responses After Consumption of Dairy Desserts Containing Fructo-oligosaccharides in Adults.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>GLYCOFOS-cream</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -599,32 +619,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT02352857</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Postprandial Glycaemic and Insulinaemic Responses After Consumption of Minicakes Containing FOS in Adults</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>GLYCOFOS-cake</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -636,32 +661,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT03203135</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Assesment of the Impact of a Nutritional Prevention Programme for Employees in Staggered Hours.</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>PREV'HODE</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -673,32 +703,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT02997826</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Effect of Infant Formula Consumption on Infant Growth From 0 to 6 Months</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>BABYMILK</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -710,32 +745,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT03872297</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Effect of a Fish Collagen Peptide Food Supplement on the Weight and Body Composition of Healthy Volunteers in Overweight</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>NATICOL</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -747,32 +787,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT05306106</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Determination of the Glycemic Index of Pastry. A Randomized Study on Healthy Volunteers.</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>IG-DESSERT</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -784,32 +829,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>NCT04468880</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Effect of Milk Consumption, Containing A2 β-caseins Only, on Digestive Comfort. A Randomized and Double-blind Study</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>A2-DIGEST</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -821,32 +871,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>NCT03936257</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Evaluation of an Innovative BIO Formula Based on a New Whey Extraction Process on the Growth and Tolerance of Infants From 0 to 6 Months.</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>TRUEGREEN</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -856,34 +911,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>2021-000045-41</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Adaptive, Ambulatory, Randomised, Placebo-Controlled, Double-Blind, Phase 2/3 Study to Evaluate the Safety, Tolerability, and Efficacy of TEE001DP in Patients at the Early Stage of Symptomatic COVID-19</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>THERAPIDE</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -895,32 +955,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>NCT05306093</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Chronic Effect of a Standardized Saffron Extract on Depressed Mood and Anhedonia in Healthy Adults. A Randomized Controlled Double-blind Clinical Trial.</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>MOOD5</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,32 +997,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT04532892</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT05178667</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Efficacy and Tolerance of a Specialized Nutraceutical for Pre-burnout - a Randomized, Double Blind Placebo Controlled Study</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>WELBI</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
+          <t>Effect of Carrot Seed and Rose Hip Extracts on Weight Management in Subjects With Overweight or Moderate Obesity. A Controlled, Randomized and Double-blind Study.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>PHYTOENIX</t>
+        </is>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -969,32 +1039,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT05178667</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT05221346</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Effect of Carrot Seed and Rose Hip Extracts on Weight Management in Subjects With Overweight or Moderate Obesity. A Controlled, Randomized and Double-blind Study.</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>PHYTOENIX</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>Effect of Oleactiv® on LDL Oxidability in Volunteers With Moderate Hypercholesterolemia - a Controlled, Randomized, Double-blind Study</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>e-POL</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1006,32 +1081,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT05221346</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT04532892</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Effect of Oleactiv® on LDL Oxidability in Volunteers With Moderate Hypercholesterolemia - a Controlled, Randomized, Double-blind Study</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>e-POL</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
+          <t>Efficacy and Tolerance of a Specialized Nutraceutical for Pre-burnout - a Randomized, Double Blind Placebo Controlled Study</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>WELBI</t>
+        </is>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1043,32 +1123,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>NCT06432010</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Effect of a Health Check-up Followed by a Collective Coaching on the Quality of Life and Behavioral Change of Retired Persons. A Prospective Study Conducted in Ambulatory.</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>R-FORM'</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
+++ b/publipostage/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +578,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,6 +625,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,6 +672,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +719,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -736,6 +766,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -778,6 +813,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -820,6 +860,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -862,6 +907,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -904,6 +954,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -946,6 +1001,7 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -988,6 +1044,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1030,6 +1091,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1072,6 +1138,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1114,6 +1185,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1155,6 +1231,11 @@
       </c>
       <c r="J17" t="b">
         <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
   </sheetData>
